--- a/myTable.xlsx
+++ b/myTable.xlsx
@@ -11,9 +11,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>http://row.name</t>
+    <t>Company A</t>
+  </si>
+  <si>
+    <t>Sub A1</t>
+  </si>
+  <si>
+    <t>Sub A2</t>
+  </si>
+  <si>
+    <t>Company B</t>
+  </si>
+  <si>
+    <t>Sub B1</t>
   </si>
 </sst>
 </file>
@@ -400,22 +412,22 @@
     </row>
     <row r="2" hidden="1" spans="1:1" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" hidden="1" spans="1:1" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" hidden="1" spans="1:1" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/myTable.xlsx
+++ b/myTable.xlsx
@@ -402,32 +402,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" hidden="1" spans="1:1" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
+    <row r="2" hidden="1" spans="1:2" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" hidden="1" spans="1:1" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
+    <row r="3" hidden="1" spans="1:2" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" hidden="1" spans="1:1" x14ac:dyDescent="0.25" outlineLevel="2" collapsed="1">
+    <row r="5" hidden="1" spans="1:2" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
       <c r="A5" t="s">
         <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/myTable.xlsx
+++ b/myTable.xlsx
@@ -402,6 +402,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
@@ -446,7 +449,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/myTable.xlsx
+++ b/myTable.xlsx
@@ -403,7 +403,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
+    <outlinePr summaryBelow="0" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
@@ -449,7 +449,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" fitToWidth="1" fitToHeight="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/myTable.xlsx
+++ b/myTable.xlsx
@@ -1,10 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Test numeric values" state="visible" r:id="rId4"/>
+    <sheet name="Test numeric values" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -31,14 +34,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -403,10 +406,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -416,7 +422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:2" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
+    <row r="2" spans="1:2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -424,7 +430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:2" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
+    <row r="3" spans="1:2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -440,7 +446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:2" x14ac:dyDescent="0.25" outlineLevel="1" collapsed="1">
+    <row r="5" spans="1:2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -450,6 +456,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>